--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -645,6 +645,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -645,7 +645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8410082404265633</v>
+        <v>0.8406684011872915</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001702908042965579</v>
+        <v>0.005884660651235718</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1589917595734367</v>
+        <v>0.1593315988127084</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004249815225425113</v>
+        <v>0.001287948482060708</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002107845297375066</v>
+        <v>0.005152259152039207</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8406684011872915</v>
+        <v>0.8412809519643013</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005884660651235718</v>
+        <v>-0.009100364014560602</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1593315988127084</v>
+        <v>0.1587190480356987</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001287948482060708</v>
+        <v>-0.01837559720690918</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005152259152039207</v>
+        <v>-0.01057252019715926</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8412809519643013</v>
+        <v>0.8425326828693127</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009100364014560602</v>
+        <v>0.002755182366833031</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1587190480356987</v>
+        <v>0.1574673171306873</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01837559720690918</v>
+        <v>0.0123549232497191</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01057252019715926</v>
+        <v>0.004266827808810714</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8425326828693127</v>
+        <v>0.8412644833684334</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002755182366833031</v>
+        <v>0.000915870731388102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1574673171306873</v>
+        <v>0.1587355166315666</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0123549232497191</v>
+        <v>-0.002958579881656709</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004266827808810714</v>
+        <v>0.0003008578116630023</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8412644833684334</v>
+        <v>0.8417817162810487</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000915870731388102</v>
+        <v>-0.01385620915032693</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1587355166315666</v>
+        <v>0.1582182837189513</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002958579881656709</v>
+        <v>-0.01910237388724034</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0003008578116630023</v>
+        <v>-0.01468624833110832</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8417817162810487</v>
+        <v>0.8424908424908425</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01385620915032693</v>
+        <v>-0.005037115588547025</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1582182837189513</v>
+        <v>0.1575091575091575</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01910237388724034</v>
+        <v>-0.0228776706371715</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01468624833110832</v>
+        <v>-0.007847166383751603</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8424908424908425</v>
+        <v>0.8448770091999219</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005037115588547025</v>
+        <v>0.007460698108180175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1575091575091575</v>
+        <v>0.155122990800078</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0228776706371715</v>
+        <v>0.004643962848297267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007847166383751603</v>
+        <v>0.007023757710375111</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8448770091999219</v>
+        <v>0.8452435952845795</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007460698108180175</v>
+        <v>0.01295953451467846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.155122990800078</v>
+        <v>0.1547564047154205</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004643962848297267</v>
+        <v>0.02600154083204931</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007023757710375111</v>
+        <v>0.0149778685226305</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8452435952845795</v>
+        <v>0.8435627863267944</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01295953451467846</v>
+        <v>-0.003916449086161844</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1547564047154205</v>
+        <v>0.1564372136732057</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02600154083204931</v>
+        <v>-0.006945748075840141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0149778685226305</v>
+        <v>-0.004390344179490246</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8435627863267944</v>
+        <v>0.8439643094167097</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003916449086161844</v>
+        <v>-0.001310615989515096</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1564372136732057</v>
+        <v>0.1560356905832903</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006945748075840141</v>
+        <v>0.003213610586011439</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004390344179490246</v>
+        <v>-0.0006046751714474663</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8439643094167097</v>
+        <v>0.8433681600850009</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001310615989515096</v>
+        <v>-0.00433070866141716</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1560356905832903</v>
+        <v>0.1566318399149991</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003213610586011439</v>
+        <v>0.005087620124364145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0006046751714474663</v>
+        <v>-0.002855498494775732</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8433681600850009</v>
+        <v>0.8425537512606516</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00433070866141716</v>
+        <v>0.01457194899817837</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1566318399149991</v>
+        <v>0.1574462487393484</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005087620124364145</v>
+        <v>0.003898997400668458</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002855498494775732</v>
+        <v>0.01289153280617383</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8425537512606516</v>
+        <v>0.8439515721727586</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01457194899817837</v>
+        <v>-0.01064375480892543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1574462487393484</v>
+        <v>0.1560484278272414</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003898997400668458</v>
+        <v>0.005548363232846354</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01289153280617383</v>
+        <v>-0.00811700024531381</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8439515721727586</v>
+        <v>0.8440386337004069</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01064375480892543</v>
+        <v>0.005691372396843697</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1560484278272414</v>
+        <v>0.1559613662995931</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005548363232846354</v>
+        <v>0.008213552361396204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00811700024531381</v>
+        <v>0.006084735030168931</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8440386337004069</v>
+        <v>0.8437086284354224</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005691372396843697</v>
+        <v>0.003086816720257124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1559613662995931</v>
+        <v>0.1562913715645776</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008213552361396204</v>
+        <v>-0.008516941307165404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006084735030168931</v>
+        <v>0.001273249462847792</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8437086284354224</v>
+        <v>0.8444079114130317</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003086816720257124</v>
+        <v>0.01029203653672961</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1562913715645776</v>
+        <v>0.1555920885869683</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008516941307165404</v>
+        <v>0.006144107242599173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001273249462847792</v>
+        <v>0.009646651554545027</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8444079114130317</v>
+        <v>0.8449476727087533</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01029203653672961</v>
+        <v>-0.003310836622946733</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1555920885869683</v>
+        <v>0.1550523272912467</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006144107242599173</v>
+        <v>-0.003515914137675713</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009646651554545027</v>
+        <v>-0.003342634368880604</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8449476727087533</v>
+        <v>0.8449746302493792</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003310836622946733</v>
+        <v>0.01022102976874928</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1550523272912467</v>
+        <v>0.1550253697506208</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003515914137675713</v>
+        <v>0.01448467966573808</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003342634368880604</v>
+        <v>0.01088200367051706</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8449746302493792</v>
+        <v>0.844422136312181</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01022102976874928</v>
+        <v>0.0007588212975842001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1550253697506208</v>
+        <v>0.1555778636878191</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01448467966573808</v>
+        <v>0.001281347245103426</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01088200367051706</v>
+        <v>0.0008401147682206567</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.844422136312181</v>
+        <v>0.8443535479281522</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0007588212975842001</v>
+        <v>-0.003285732339188385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1555778636878191</v>
+        <v>0.1556464520718478</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001281347245103426</v>
+        <v>-0.00054844606946991</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008401147682206567</v>
+        <v>-0.002859683443001582</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8443535479281522</v>
+        <v>0.843992780349996</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003285732339188385</v>
+        <v>0.00253581843539985</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1556464520718478</v>
+        <v>0.1560072196500039</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00054844606946991</v>
+        <v>0.007499542710810214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002859683443001582</v>
+        <v>0.003310195258715787</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.843992780349996</v>
+        <v>0.8433413682032467</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00253581843539985</v>
+        <v>0.0003794106487922111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1560072196500039</v>
+        <v>0.1566586317967534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007499542710810214</v>
+        <v>-0.00236020334059539</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003310195258715787</v>
+        <v>-4.977353043644772E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8433413682032467</v>
+        <v>0.8437033349925336</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003794106487922111</v>
+        <v>-0.01251580278128939</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1566586317967534</v>
+        <v>0.1562966650074664</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00236020334059539</v>
+        <v>-0.01765241128298467</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-4.977353043644772E-05</v>
+        <v>-0.01331863755955331</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8437033349925336</v>
+        <v>0.8443898325850226</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01251580278128939</v>
+        <v>0.01101011394187679</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1562966650074664</v>
+        <v>0.1556101674149772</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01765241128298467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01331863755955331</v>
+        <v>0.009296828268123392</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8443898325850226</v>
+        <v>0.8458231879297664</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01101011394187679</v>
+        <v>-0.01481575281752556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1556101674149772</v>
+        <v>0.1541768120702336</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.01130048165987396</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009296828268123392</v>
+        <v>-0.01427377951687647</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8458231879297664</v>
+        <v>0.8453581363004172</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01481575281752556</v>
+        <v>0.01362467866323924</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1541768120702336</v>
+        <v>0.1546418636995827</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01130048165987396</v>
+        <v>0.004684279557803928</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01427377951687647</v>
+        <v>0.01224211868335656</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8453581363004172</v>
+        <v>0.8465127595929526</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01362467866323924</v>
+        <v>0.008242454983515168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1546418636995827</v>
+        <v>0.1534872404070474</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004684279557803928</v>
+        <v>0.009511376352107526</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01224211868335656</v>
+        <v>0.008437218222673737</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8465127595929526</v>
+        <v>0.8463492694281031</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008242454983515168</v>
+        <v>0.01131933090177317</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1534872404070474</v>
+        <v>0.1536507305718969</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009511376352107526</v>
+        <v>0.01034546462220565</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008437218222673737</v>
+        <v>0.01116969563643821</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8463492694281031</v>
+        <v>0.8464745141798429</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01131933090177317</v>
+        <v>-0.0053475935828875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1536507305718969</v>
+        <v>0.1535254858201571</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01034546462220565</v>
+        <v>-0.01791918083744737</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01116969563643821</v>
+        <v>-0.007277652623674413</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8464745141798429</v>
+        <v>0.8481202369674948</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0053475935828875</v>
+        <v>-0.01312828207051764</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1535254858201571</v>
+        <v>0.1518797630325053</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01791918083744737</v>
+        <v>-0.00279277601936323</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007277652623674413</v>
+        <v>-0.01155852786064726</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8481202369674948</v>
+        <v>0.8467733283745413</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01312828207051764</v>
+        <v>-0.01596351197263401</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1518797630325053</v>
+        <v>0.1532266716254586</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00279277601936323</v>
+        <v>-0.0276325616131442</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01155852786064726</v>
+        <v>-0.01775152161008176</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8467733283745413</v>
+        <v>0.8483147294611066</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01596351197263401</v>
+        <v>0.007467490665636678</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1532266716254586</v>
+        <v>0.1516852705388934</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0276325616131442</v>
+        <v>-0.001344086021505375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01775152161008176</v>
+        <v>0.00613090427197327</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8483147294611066</v>
+        <v>0.849441666244509</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007467490665636678</v>
+        <v>0.01674121405750806</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1516852705388934</v>
+        <v>0.1505583337554911</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001344086021505375</v>
+        <v>0.018073447413959</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00613090427197327</v>
+        <v>0.01694179289182873</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.849441666244509</v>
+        <v>0.8492741246797609</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01674121405750806</v>
+        <v>-0.001885369532428571</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1505583337554911</v>
+        <v>0.1507258753202391</v>
       </c>
       <c r="E3" s="1">
-        <v>0.018073447413959</v>
+        <v>-0.0009442870632673239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01694179289182873</v>
+        <v>-0.001743524053515744</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8492741246797609</v>
+        <v>0.8491534485831403</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001885369532428571</v>
+        <v>0.002140788313814479</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1507258753202391</v>
+        <v>0.1508465514168598</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009442870632673239</v>
+        <v>0.01342155009451806</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001743524053515744</v>
+        <v>0.003842452325788948</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8491534485831403</v>
+        <v>0.8477140057096595</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002140788313814479</v>
+        <v>-0.008796179944709936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1508465514168598</v>
+        <v>0.1522859942903404</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01342155009451806</v>
+        <v>-0.002984517813840681</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003842452325788948</v>
+        <v>-0.007911145198631009</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8477140057096595</v>
+        <v>0.846957766642806</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008796179944709936</v>
+        <v>0.01318458417849899</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1522859942903404</v>
+        <v>0.153042233357194</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002984517813840681</v>
+        <v>0.005799812909260904</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007911145198631009</v>
+        <v>0.01205440229062282</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.846957766642806</v>
+        <v>0.8479035817348498</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01318458417849899</v>
+        <v>0.001376376376376554</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.153042233357194</v>
+        <v>0.1520964182651502</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005799812909260904</v>
+        <v>-0.01153273809523803</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01205440229062282</v>
+        <v>-0.0005870536977309326</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8479035817348498</v>
+        <v>0.8495693590278909</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001376376376376554</v>
+        <v>0.006122703986005229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1520964182651502</v>
+        <v>0.1504306409721092</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01153273809523803</v>
+        <v>0.008280015054572765</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0005870536977309326</v>
+        <v>0.00644722967282596</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8495693590278909</v>
+        <v>0.8492954181081765</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006122703986005229</v>
+        <v>0.0002483854942871844</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1504306409721092</v>
+        <v>0.1507045818918235</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008280015054572765</v>
+        <v>0.009891750653228781</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00644722967282596</v>
+        <v>0.001701684808595783</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8492954181081765</v>
+        <v>0.8480632344476111</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0002483854942871844</v>
+        <v>-0.0006208095356347032</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1507045818918235</v>
+        <v>0.1519367655523888</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009891750653228781</v>
+        <v>0.007392348918868974</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001701684808595783</v>
+        <v>0.0005966838418014486</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8480632344476111</v>
+        <v>0.8470313387914886</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0006208095356347032</v>
+        <v>0.00186358553857624</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1519367655523888</v>
+        <v>0.1529686612085114</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007392348918868974</v>
+        <v>0.0001834525775088469</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0005966838418014486</v>
+        <v>0.001606577848869417</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8470313387914886</v>
+        <v>0.8472486831783033</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00186358553857624</v>
+        <v>0.002356150793650924</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1529686612085114</v>
+        <v>0.1527513168216968</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0001834525775088469</v>
+        <v>0.006419662509170809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001606577848869417</v>
+        <v>0.002976857559117141</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8472486831783033</v>
+        <v>0.8471053012596438</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002356150793650924</v>
+        <v>-0.002685874740568917</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1527513168216968</v>
+        <v>0.1528946987403562</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006419662509170809</v>
+        <v>-0.002886002886002825</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002976857559117141</v>
+        <v>-0.00271647327307456</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8471053012596438</v>
+        <v>0.8471312920420058</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002685874740568917</v>
+        <v>-0.01077243236626257</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1528946987403562</v>
+        <v>0.1528687079579943</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002886002886002825</v>
+        <v>0.003617945007235779</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00271647327307456</v>
+        <v>-0.008572593970147757</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8471312920420058</v>
+        <v>0.8460060160427807</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01077243236626257</v>
+        <v>0.001728395061728394</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1528687079579943</v>
+        <v>0.1539939839572192</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003617945007235779</v>
+        <v>0.002712967986977732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008572593970147757</v>
+        <v>0.001880013368983802</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8460060160427807</v>
+        <v>0.8459623062722706</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001728395061728394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1539939839572192</v>
+        <v>0.1540376937277294</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002712967986977732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001880013368983802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -513,7 +513,7 @@
         <v>0.8459623062722706</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.005455468155290522</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -530,7 +530,7 @@
         <v>0.1540376937277294</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.001114827201783797</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.004443395011376916</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8459623062722706</v>
+        <v>0.8468146945055884</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005455468155290522</v>
+        <v>-0.01287066246056778</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1540376937277294</v>
+        <v>0.1531853054944116</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001114827201783797</v>
+        <v>-0.02083333333333326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004443395011376916</v>
+        <v>-0.01409042663076387</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8468146945055884</v>
+        <v>0.8478623709366262</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01287066246056778</v>
+        <v>0.01700115045379014</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1531853054944116</v>
+        <v>0.1521376290633738</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02083333333333326</v>
+        <v>0.01728723404255317</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01409042663076387</v>
+        <v>0.01704467453269864</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8478623709366262</v>
+        <v>0.8482553613136102</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01700115045379014</v>
+        <v>-0.005256570713391695</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1521376290633738</v>
+        <v>0.1517446386863897</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01728723404255317</v>
+        <v>0.000932835820895539</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01704467453269864</v>
+        <v>-0.00431736145516326</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/COREINTL_holdings.xlsx
+++ b/COREINTL_holdings.xlsx
@@ -53,7 +53,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.8482553613136102</v>
+        <v>0.8474552175149276</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005256570713391695</v>
+        <v>0.002264720684448829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -527,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1517446386863897</v>
+        <v>0.1525447824850725</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000932835820895539</v>
+        <v>0.004287045666356182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,10 +538,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00431736145516326</v>
+        <v>0.002573215808927998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
